--- a/data/trans_bre/P1001-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1001-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.7722947202803792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.167324372553949</v>
+        <v>5.16732437255395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04029822671520633</v>
@@ -649,7 +649,7 @@
         <v>0.3308375251602311</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.834026018579001</v>
+        <v>1.834026018579002</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.139543068555568</v>
+        <v>-2.037965057888579</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2907246341694758</v>
+        <v>0.3926184358446079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.604581518884266</v>
+        <v>-1.414876164063986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1558936580122026</v>
+        <v>0.3487319965509822</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5872264324072229</v>
+        <v>-0.5718454126925986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001252741180148459</v>
+        <v>-0.01406939174936078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4797618750799256</v>
+        <v>-0.4195304978577207</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1669702043635544</v>
+        <v>-0.09564054094442455</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.212555077862902</v>
+        <v>2.182317387488414</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.049072660049688</v>
+        <v>5.22942584479976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.358484766172869</v>
+        <v>3.02200873685496</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.1716414708336</v>
+        <v>10.02855952615291</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.521343188836219</v>
+        <v>1.487359316771397</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.131424750595991</v>
+        <v>4.126416604924001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.587598279021235</v>
+        <v>2.488415591373258</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9.406794403660104</v>
+        <v>9.360712285752509</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.437519639203124</v>
+        <v>1.729322077113065</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1226495496975695</v>
+        <v>0.1786373003087654</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.170155744090768</v>
+        <v>-2.227688879974279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7882486557324252</v>
+        <v>1.028289495870806</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3201953227242473</v>
+        <v>0.3670836101805766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002052493364465802</v>
+        <v>0.03578003477674466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3936136981260895</v>
+        <v>-0.4040957929006226</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.010138585453318</v>
+        <v>0.1210361001645227</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.556489845901319</v>
+        <v>6.334978255247699</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.053681990206638</v>
+        <v>4.92496020566758</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.672006878983349</v>
+        <v>2.442897255627299</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.868160083964669</v>
+        <v>7.034149639820369</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.558656054553174</v>
+        <v>2.548450292956393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.440918901496704</v>
+        <v>2.737313495861927</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8523662061285939</v>
+        <v>0.8056255960857399</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.007561264150341</v>
+        <v>5.805306894046368</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1771017991033602</v>
+        <v>-0.04010713826098385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.184028312033201</v>
+        <v>2.883185507634495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4746765998641413</v>
+        <v>-0.5005102620129641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.802965426396369</v>
+        <v>-2.113641893661662</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.04229832240413334</v>
+        <v>-0.03651820139966146</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4176130533914997</v>
+        <v>0.3830193241146407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08558926666848517</v>
+        <v>-0.101060378794929</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2717869497411208</v>
+        <v>-0.3137286754142355</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.061012285211384</v>
+        <v>5.100725136854327</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.153239508741336</v>
+        <v>9.262174541630738</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.78529740691023</v>
+        <v>4.529453923394234</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.217290002402079</v>
+        <v>3.225456901437867</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.755485726288021</v>
+        <v>1.704743034140702</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.130303149140448</v>
+        <v>2.231102320120459</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.351094507716788</v>
+        <v>1.219626829929787</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.791224086516328</v>
+        <v>0.8132078329100454</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.517037846141648</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.495392318604202</v>
+        <v>2.495392318604205</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8032075519735402</v>
@@ -949,7 +949,7 @@
         <v>0.5103628610171579</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3868363138988482</v>
+        <v>0.3868363138988487</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.576237859217556</v>
+        <v>1.586172246505262</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.140363558014658</v>
+        <v>2.859573126389445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3845881675575948</v>
+        <v>0.1874675973053397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2739136152279723</v>
+        <v>-0.05539327106286704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1932064485577335</v>
+        <v>0.192374216003966</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.346957973961511</v>
+        <v>0.3400960395418805</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02984238875118109</v>
+        <v>0.04190198337770824</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03761904154762939</v>
+        <v>-0.01058794125901283</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.445998619122626</v>
+        <v>8.291124670177528</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.53688787001214</v>
+        <v>10.08255433952264</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.869891726486295</v>
+        <v>6.582546008662704</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.80876779661669</v>
+        <v>5.334990698537103</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.803702435067173</v>
+        <v>1.790370876022059</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.972028589552399</v>
+        <v>1.915672667796785</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.233218098309339</v>
+        <v>1.295372317383444</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9684939997705576</v>
+        <v>1.125809989410225</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>10.96973177752727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.316642075591858</v>
+        <v>6.316642075591859</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3254221679706389</v>
@@ -1049,7 +1049,7 @@
         <v>1.6039673860306</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.8816472047410411</v>
+        <v>0.8816472047410414</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.431982216829333</v>
+        <v>-1.251363073775057</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.029754544738353</v>
+        <v>5.965204412620253</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.698560564582228</v>
+        <v>6.627701780515752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.396848633179853</v>
+        <v>3.123438252620491</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1618025113075967</v>
+        <v>-0.1453713609773022</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4776356846211632</v>
+        <v>0.491034817384966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6945335606812151</v>
+        <v>0.799261388182987</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3546833037463419</v>
+        <v>0.331629139603514</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.617042010361534</v>
+        <v>6.872677271478084</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.88329761755559</v>
+        <v>15.38437877469149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.32212194789702</v>
+        <v>15.20801110656524</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.299785903327486</v>
+        <v>9.235702067199155</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9871072677236982</v>
+        <v>1.076003537093967</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.011895550768238</v>
+        <v>2.036347614197571</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.852287948189072</v>
+        <v>3.024460871758184</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.565553070819151</v>
+        <v>1.622428110528399</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>13.36357796899862</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.990898782610105</v>
+        <v>7.990898782610103</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1824049168661153</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.963812169462277</v>
+        <v>-3.182726257074618</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.029033794139041</v>
+        <v>4.825365880485256</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7.570958602230126</v>
+        <v>7.833001381544808</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.848300013113593</v>
+        <v>4.710351085587336</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2039143226167286</v>
+        <v>-0.2118547082790859</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3484977536756098</v>
+        <v>0.3074065923578401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.642623905126671</v>
+        <v>0.6689498577930987</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5070864419318315</v>
+        <v>0.4894504726155556</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.88691359428634</v>
+        <v>7.029271144137883</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.33657807870046</v>
+        <v>16.86571071237308</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.40498787342229</v>
+        <v>19.13338247784667</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.67640429731677</v>
+        <v>11.36247067050498</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7136713045900137</v>
+        <v>0.7040459749518662</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.770020597224539</v>
+        <v>1.799891649564546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.878445586492538</v>
+        <v>3.039996414751601</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.980212334451192</v>
+        <v>1.908639898626067</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.450766173418495</v>
+        <v>-5.131003708161735</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.37575812039266</v>
+        <v>4.214333315809152</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.112584838639846</v>
+        <v>8.536276086474933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.48412048009967</v>
+        <v>10.13138461791287</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2641298036559291</v>
+        <v>-0.2525149373433985</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1689259902857356</v>
+        <v>0.1386457679726011</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5929150119547484</v>
+        <v>0.5427595928642164</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.7179995257783652</v>
+        <v>0.6475926824024388</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.33345860438483</v>
+        <v>8.265447513389061</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.76782126296052</v>
+        <v>19.20695321795697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.87110293376</v>
+        <v>21.13203456000712</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.98790556595184</v>
+        <v>18.79637564499431</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6476535636833968</v>
+        <v>0.619867706399662</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.060939669632697</v>
+        <v>1.060045522486078</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.093874919891769</v>
+        <v>2.146268493208229</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.087025972582996</v>
+        <v>1.91359175213233</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>6.126876153153074</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.699618313141069</v>
+        <v>5.699618313141068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5567431162707636</v>
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.183336130080215</v>
+        <v>2.00772480703452</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.042378430622073</v>
+        <v>5.864049192570617</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.724857498988089</v>
+        <v>4.726626569405674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.472691193526528</v>
+        <v>4.385407143818795</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3255947356206387</v>
+        <v>0.2976245173389047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7544917176929568</v>
+        <v>0.771630208357274</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6857274805813939</v>
+        <v>0.7060583818495049</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6870567085523334</v>
+        <v>0.6404044797219051</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.706651533429194</v>
+        <v>4.714833252232508</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.115510389394865</v>
+        <v>8.97937399931563</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.609804544079508</v>
+        <v>7.546458789809845</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6.971358452805042</v>
+        <v>7.002725684010244</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8569524449237516</v>
+        <v>0.8606825940607949</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.440954389837261</v>
+        <v>1.400992680620727</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.344959282688276</v>
+        <v>1.377288159980686</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.290497311879757</v>
+        <v>1.272210400143302</v>
       </c>
     </row>
     <row r="28">
